--- a/output/1Y_P8_1VAL-D.xlsx
+++ b/output/1Y_P8_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>10.2783</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>972.9235</v>
       </c>
-      <c r="G2" s="1">
-        <v>972.9235</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1432</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>10.2783</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1432</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>9.807499999999999</v>
       </c>
+      <c r="E3" s="1">
+        <v>972.9235</v>
+      </c>
       <c r="F3" s="1">
         <v>1019.6278</v>
       </c>
-      <c r="G3" s="1">
-        <v>1992.5514</v>
-      </c>
       <c r="H3" s="1">
-        <v>19440.5267</v>
+        <v>9492.425800000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.0374</v>
+        <v>9492.425800000001</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10.2783</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.5</v>
       </c>
-      <c r="L3" s="1">
-        <v>437.8156</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9562.1844</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>437.8156</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19878.3423</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0035</v>
+        <v>-0.0508</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>10.4459</v>
       </c>
+      <c r="E4" s="1">
+        <v>1992.5514</v>
+      </c>
       <c r="F4" s="1">
-        <v>961.5047</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2954.056</v>
+        <v>957.3134</v>
       </c>
       <c r="H4" s="1">
-        <v>30697.6641</v>
+        <v>20705.9961</v>
       </c>
       <c r="I4" s="1">
-        <v>30043.7816</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>10.1703</v>
+        <v>20705.9961</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.0374</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10043.7816</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>394.034</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>31091.6982</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0406</v>
+        <v>0.0623</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>9.6988</v>
       </c>
+      <c r="E5" s="1">
+        <v>2949.8648</v>
+      </c>
       <c r="F5" s="1">
-        <v>1035.5695</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3989.6255</v>
+        <v>1031.0554</v>
       </c>
       <c r="H5" s="1">
-        <v>38493.5031</v>
+        <v>28461.4752</v>
       </c>
       <c r="I5" s="1">
-        <v>40087.5631</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>10.048</v>
+        <v>28461.4752</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.17</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10043.7816</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>350.2525</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>38843.7556</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0547</v>
+        <v>-0.0731</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>10.0658</v>
       </c>
+      <c r="E6" s="1">
+        <v>3980.9202</v>
+      </c>
       <c r="F6" s="1">
-        <v>997.8125</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4987.4381</v>
+        <v>993.463</v>
       </c>
       <c r="H6" s="1">
-        <v>49941.7114</v>
+        <v>39862.944</v>
       </c>
       <c r="I6" s="1">
-        <v>50131.3447</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>10.0515</v>
+        <v>39862.944</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.0479</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10043.7816</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>306.4709</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>50248.1823</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0288</v>
+        <v>0.0364</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>11.2848</v>
       </c>
+      <c r="E7" s="1">
+        <v>4974.3832</v>
+      </c>
       <c r="F7" s="1">
-        <v>890.0273999999999</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5877.4655</v>
+        <v>886.1477</v>
       </c>
       <c r="H7" s="1">
-        <v>65982.1912</v>
+        <v>55843.9178</v>
       </c>
       <c r="I7" s="1">
-        <v>60175.1262</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>10.2383</v>
+        <v>55843.9178</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.0515</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10043.7816</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>262.6894</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>66244.8806</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.09950000000000001</v>
+        <v>0.1199</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>11.1341</v>
       </c>
+      <c r="E8" s="1">
+        <v>5860.5309</v>
+      </c>
       <c r="F8" s="1">
-        <v>902.0739</v>
-      </c>
-      <c r="G8" s="1">
-        <v>6779.5395</v>
+        <v>898.1417</v>
       </c>
       <c r="H8" s="1">
-        <v>75092.89109999999</v>
+        <v>64913.5846</v>
       </c>
       <c r="I8" s="1">
-        <v>70218.9078</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>10.3575</v>
+        <v>64913.5846</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.238</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10043.7816</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>218.9078</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>75311.79889999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0122</v>
+        <v>-0.0141</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>10.9064</v>
       </c>
+      <c r="E9" s="1">
+        <v>6758.6727</v>
+      </c>
       <c r="F9" s="1">
-        <v>920.9071</v>
-      </c>
-      <c r="G9" s="1">
-        <v>7700.4466</v>
+        <v>916.8928</v>
       </c>
       <c r="H9" s="1">
-        <v>83548.30560000001</v>
+        <v>73330.2466</v>
       </c>
       <c r="I9" s="1">
-        <v>80262.6894</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>10.4231</v>
+        <v>73330.2466</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>10.3571</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10043.7816</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>175.1262</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>83723.4319</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0186</v>
+        <v>-0.0211</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>11.6267</v>
       </c>
+      <c r="E10" s="1">
+        <v>7675.5655</v>
+      </c>
       <c r="F10" s="1">
-        <v>863.8549</v>
-      </c>
-      <c r="G10" s="1">
-        <v>8564.3015</v>
+        <v>860.0893</v>
       </c>
       <c r="H10" s="1">
-        <v>99057.2803</v>
+        <v>88777.8931</v>
       </c>
       <c r="I10" s="1">
-        <v>90306.4709</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>10.5445</v>
+        <v>88777.8931</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>10.4227</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10043.7816</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>131.3447</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>99188.625</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0583</v>
+        <v>0.0654</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>12.3095</v>
       </c>
+      <c r="E11" s="1">
+        <v>8535.6548</v>
+      </c>
       <c r="F11" s="1">
-        <v>815.9374</v>
-      </c>
-      <c r="G11" s="1">
-        <v>9380.2389</v>
+        <v>812.3807</v>
       </c>
       <c r="H11" s="1">
-        <v>114866.6535</v>
+        <v>104524.214</v>
       </c>
       <c r="I11" s="1">
-        <v>100350.2525</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>10.698</v>
+        <v>104524.214</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>10.544</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10043.7816</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>87.56310000000001</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>114954.2166</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0528</v>
+        <v>0.0582</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>13.3876</v>
       </c>
+      <c r="E12" s="1">
+        <v>9348.035400000001</v>
+      </c>
       <c r="F12" s="1">
-        <v>750.2302</v>
-      </c>
-      <c r="G12" s="1">
-        <v>10130.4691</v>
+        <v>746.9598999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>134919.6133</v>
+        <v>124499.0057</v>
       </c>
       <c r="I12" s="1">
-        <v>110394.034</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>10.8972</v>
+        <v>124499.0057</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>10.6974</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10043.7816</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>43.7816</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>134963.3949</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0801</v>
+        <v>0.0871</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>13.3141</v>
       </c>
+      <c r="E13" s="1">
+        <v>10094.9953</v>
+      </c>
       <c r="F13" s="1">
-        <v>754.3718</v>
-      </c>
-      <c r="G13" s="1">
-        <v>10884.8409</v>
+        <v>751.0834</v>
       </c>
       <c r="H13" s="1">
-        <v>144169.7175</v>
+        <v>133708.213</v>
       </c>
       <c r="I13" s="1">
-        <v>120437.8156</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>11.0647</v>
+        <v>133708.213</v>
       </c>
       <c r="K13" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>10.8965</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.6</v>
       </c>
-      <c r="L13" s="1">
-        <v>5470.4533</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-4573.3283</v>
+        <v>5047.9391</v>
       </c>
       <c r="O13" s="1">
-        <v>5470.4533</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>149640.1708</v>
+        <v>-4952.0609</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0323</v>
+        <v>-0.0059</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>13.7208</v>
       </c>
+      <c r="E14" s="1">
+        <v>10846.0788</v>
+      </c>
       <c r="F14" s="1">
-        <v>-10884.8409</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-10094.9953</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>148044.6366</v>
       </c>
       <c r="I14" s="1">
-        <v>120437.8156</v>
+        <v>5047.9391</v>
       </c>
       <c r="J14" s="1">
-        <v>11.0647</v>
+        <v>153092.5758</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>10.1419</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>148573.7241</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>154044.1774</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>154044.1774</v>
+        <v>137792.6481</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0351</v>
+        <v>0.0653</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>10.2783</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>972.9235</v>
       </c>
       <c r="G2" s="1">
-        <v>972.9235</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1432</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>10.2783</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1432</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>972.9235</v>
       </c>
       <c r="F3" s="1">
         <v>1019.6278</v>
       </c>
       <c r="G3" s="1">
-        <v>1992.5514</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19440.5267</v>
+        <v>9492.425800000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.0374</v>
+        <v>9492.425800000001</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10.2783</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.5</v>
       </c>
-      <c r="L3" s="1">
-        <v>437.8156</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9562.1844</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>437.8156</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19878.3423</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0035</v>
+        <v>-0.0508</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>10.4459</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1992.5514</v>
       </c>
       <c r="F4" s="1">
         <v>894.3680000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>2886.9194</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20705.9961</v>
       </c>
       <c r="I4" s="1">
-        <v>29342.4786</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>10.1639</v>
+        <v>20705.9961</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19342.4786</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>9.7074</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9342.4786</v>
       </c>
-      <c r="O4" s="1">
-        <v>1095.337</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31095.337</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0407</v>
+        <v>0.0623</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>9.6988</v>
       </c>
       <c r="E5" s="1">
+        <v>2886.9194</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1098.8495</v>
+      </c>
+      <c r="G5" s="1">
         <v>40000</v>
       </c>
-      <c r="F5" s="1">
-        <v>1143.9907</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4030.9101</v>
-      </c>
       <c r="H5" s="1">
-        <v>38891.8327</v>
+        <v>27854.1528</v>
       </c>
       <c r="I5" s="1">
-        <v>40437.8156</v>
+        <v>657.5214</v>
       </c>
       <c r="J5" s="1">
-        <v>10.0319</v>
+        <v>28511.6742</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.3917</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-11095.337</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>38891.8327</v>
+        <v>-10657.5214</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0536</v>
+        <v>-0.07149999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>10.0658</v>
       </c>
       <c r="E6" s="1">
+        <v>3985.7689</v>
+      </c>
+      <c r="F6" s="1">
+        <v>993.463</v>
+      </c>
+      <c r="G6" s="1">
         <v>50000</v>
       </c>
-      <c r="F6" s="1">
-        <v>962.349</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4993.2591</v>
-      </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>39911.4964</v>
       </c>
       <c r="I6" s="1">
-        <v>50124.6285</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>10.0385</v>
+        <v>39911.4964</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.0357</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-9686.812900000001</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>313.1871</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>50313.1871</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0291</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>11.2848</v>
       </c>
       <c r="E7" s="1">
+        <v>4979.2319</v>
+      </c>
+      <c r="F7" s="1">
+        <v>365.3607</v>
+      </c>
+      <c r="G7" s="1">
         <v>60000</v>
       </c>
-      <c r="F7" s="1">
-        <v>351.3335</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5344.5926</v>
-      </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>55898.3507</v>
       </c>
       <c r="I7" s="1">
-        <v>54089.3569</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>10.1204</v>
+        <v>55898.3507</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>44123.0229</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>8.8614</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-3964.7284</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>6348.4587</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>66348.4587</v>
+        <v>-4123.0229</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1001</v>
+        <v>0.1199</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>11.1341</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>5344.5926</v>
       </c>
       <c r="F8" s="1">
         <v>975.1503</v>
       </c>
       <c r="G8" s="1">
-        <v>6319.7429</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>59198.8456</v>
       </c>
       <c r="I8" s="1">
-        <v>64946.7775</v>
+        <v>5876.9771</v>
       </c>
       <c r="J8" s="1">
-        <v>10.2768</v>
+        <v>65075.8226</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>54980.4435</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.2871</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10857.4206</v>
       </c>
-      <c r="O8" s="1">
-        <v>5491.0381</v>
-      </c>
-      <c r="P8" s="1">
-        <v>75491.03810000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0112</v>
+        <v>-0.0125</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>10.9064</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>6319.7429</v>
       </c>
       <c r="F9" s="1">
         <v>1053.6649</v>
       </c>
       <c r="G9" s="1">
-        <v>7373.4078</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>68567.9463</v>
       </c>
       <c r="I9" s="1">
-        <v>76438.4687</v>
+        <v>5019.5565</v>
       </c>
       <c r="J9" s="1">
-        <v>10.3668</v>
+        <v>73587.5027</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>66472.1347</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>10.5182</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-11491.6912</v>
       </c>
-      <c r="O9" s="1">
-        <v>3999.3469</v>
-      </c>
-      <c r="P9" s="1">
-        <v>83999.3469</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0174</v>
+        <v>-0.0198</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>11.6267</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>7373.4078</v>
       </c>
       <c r="F10" s="1">
         <v>407.8187</v>
       </c>
       <c r="G10" s="1">
-        <v>7781.2265</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>85283.04670000001</v>
       </c>
       <c r="I10" s="1">
-        <v>81180.0542</v>
+        <v>3527.8653</v>
       </c>
       <c r="J10" s="1">
-        <v>10.4328</v>
+        <v>88810.912</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>71213.7203</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>9.658200000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-4741.5856</v>
       </c>
-      <c r="O10" s="1">
-        <v>9257.761399999999</v>
-      </c>
-      <c r="P10" s="1">
-        <v>99257.7614</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0559</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>12.3095</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>7781.2265</v>
       </c>
       <c r="F11" s="1">
         <v>384.972</v>
       </c>
       <c r="G11" s="1">
-        <v>8166.1985</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>95285.78720000001</v>
       </c>
       <c r="I11" s="1">
-        <v>85918.8668</v>
+        <v>8786.279699999999</v>
       </c>
       <c r="J11" s="1">
-        <v>10.5213</v>
+        <v>104072.0669</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>75952.5328</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>9.760999999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-4738.8126</v>
       </c>
-      <c r="O11" s="1">
-        <v>14518.9488</v>
-      </c>
-      <c r="P11" s="1">
-        <v>114518.9488</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0482</v>
+        <v>0.0532</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>13.3876</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>8166.1985</v>
       </c>
       <c r="F12" s="1">
         <v>93.1759</v>
       </c>
       <c r="G12" s="1">
-        <v>8259.374400000001</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>108759.0645</v>
       </c>
       <c r="I12" s="1">
-        <v>87166.2687</v>
+        <v>14047.4672</v>
       </c>
       <c r="J12" s="1">
-        <v>10.5536</v>
+        <v>122806.5317</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>77199.9347</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>9.4536</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-1247.4019</v>
       </c>
-      <c r="O12" s="1">
-        <v>23271.5469</v>
-      </c>
-      <c r="P12" s="1">
-        <v>133271.5469</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0703</v>
+        <v>0.0766</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>13.3141</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>8259.374400000001</v>
       </c>
       <c r="F13" s="1">
         <v>800.6482999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>9060.0227</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>109395.4138</v>
       </c>
       <c r="I13" s="1">
-        <v>97826.17969999999</v>
+        <v>22800.0653</v>
       </c>
       <c r="J13" s="1">
-        <v>10.7976</v>
+        <v>132195.4791</v>
       </c>
       <c r="K13" s="1">
+        <v>87859.84570000001</v>
+      </c>
+      <c r="L13" s="1">
+        <v>10.6376</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.6</v>
       </c>
-      <c r="L13" s="1">
-        <v>4460.0622</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-6199.8488</v>
+        <v>4409.7472</v>
       </c>
       <c r="O13" s="1">
-        <v>27071.6981</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>147071.6981</v>
+        <v>-6250.1638</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0265</v>
+        <v>-0.0046</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>13.7208</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9060.0227</v>
       </c>
       <c r="F14" s="1">
         <v>-9060.0227</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>123665.6852</v>
       </c>
       <c r="I14" s="1">
-        <v>97826.17969999999</v>
+        <v>26549.9014</v>
       </c>
       <c r="J14" s="1">
-        <v>10.7976</v>
+        <v>150215.5866</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>87859.84570000001</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>9.6975</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>123665.6852</v>
       </c>
-      <c r="O14" s="1">
-        <v>150737.3832</v>
-      </c>
-      <c r="P14" s="1">
-        <v>150737.3832</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0403</v>
+        <v>0.0564</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>10.2783</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>972.9235</v>
       </c>
       <c r="G2" s="1">
-        <v>972.9235</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1432</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>10.2783</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1432</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>972.9235</v>
       </c>
       <c r="F3" s="1">
         <v>1019.6278</v>
       </c>
       <c r="G3" s="1">
-        <v>1992.5514</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19440.5267</v>
+        <v>9492.425800000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.0374</v>
+        <v>9492.425800000001</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10.2783</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.5</v>
       </c>
-      <c r="L3" s="1">
-        <v>437.8156</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9562.1844</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>437.8156</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19878.3423</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0035</v>
+        <v>-0.0508</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>10.4459</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1992.5514</v>
       </c>
       <c r="F4" s="1">
         <v>908.8266</v>
       </c>
       <c r="G4" s="1">
-        <v>2901.378</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20705.9961</v>
       </c>
       <c r="I4" s="1">
-        <v>29493.5123</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>10.1653</v>
+        <v>20705.9961</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19493.5123</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>9.783200000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9493.5123</v>
       </c>
-      <c r="O4" s="1">
-        <v>944.3033</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31094.5533</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0407</v>
+        <v>0.0623</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>9.6988</v>
       </c>
       <c r="E5" s="1">
+        <v>2901.378</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1083.2771</v>
+      </c>
+      <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
-      <c r="F5" s="1">
-        <v>1128.4183</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4029.7963</v>
-      </c>
       <c r="H5" s="1">
-        <v>38881.0867</v>
+        <v>27993.6557</v>
       </c>
       <c r="I5" s="1">
-        <v>40437.8156</v>
+        <v>506.4877</v>
       </c>
       <c r="J5" s="1">
-        <v>10.0347</v>
+        <v>28500.1434</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.3399</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10944.3033</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>38881.0867</v>
+        <v>-10506.4877</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0539</v>
+        <v>-0.0718</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>10.0658</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>3984.6551</v>
       </c>
       <c r="F6" s="1">
         <v>993.463</v>
       </c>
       <c r="G6" s="1">
-        <v>5023.2593</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50300.4073</v>
+        <v>39900.3438</v>
       </c>
       <c r="I6" s="1">
-        <v>50437.8156</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>10.0409</v>
+        <v>39900.3438</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.0385</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50300.4073</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.029</v>
+        <v>0.0364</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>11.2848</v>
       </c>
       <c r="E7" s="1">
+        <v>4978.1181</v>
+      </c>
+      <c r="F7" s="1">
+        <v>433.729</v>
+      </c>
+      <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
-      <c r="F7" s="1">
-        <v>388.5877</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5411.8471</v>
-      </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>55885.8474</v>
       </c>
       <c r="I7" s="1">
-        <v>54822.9506</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>10.1302</v>
+        <v>55885.8474</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>44894.5446</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>9.0184</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-4385.135</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>5614.865</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>66369.8838</v>
+        <v>-4894.5446</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1007</v>
+        <v>0.1199</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>11.1341</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>5411.8471</v>
       </c>
       <c r="F8" s="1">
         <v>1003.4859</v>
       </c>
       <c r="G8" s="1">
-        <v>6415.3329</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>59943.7829</v>
       </c>
       <c r="I8" s="1">
-        <v>65995.8627</v>
+        <v>5105.4554</v>
       </c>
       <c r="J8" s="1">
-        <v>10.2872</v>
+        <v>65049.2383</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>56067.4567</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.3601</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-11172.9121</v>
       </c>
-      <c r="O8" s="1">
-        <v>4441.9529</v>
-      </c>
-      <c r="P8" s="1">
-        <v>75500.74679999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0114</v>
+        <v>-0.0127</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>10.9064</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>6415.3329</v>
       </c>
       <c r="F9" s="1">
         <v>1088.4079</v>
       </c>
       <c r="G9" s="1">
-        <v>7503.7409</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>69605.0794</v>
       </c>
       <c r="I9" s="1">
-        <v>77866.47500000001</v>
+        <v>3932.5433</v>
       </c>
       <c r="J9" s="1">
-        <v>10.377</v>
+        <v>73537.6228</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>67938.069</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>10.59</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-11870.6123</v>
       </c>
-      <c r="O9" s="1">
-        <v>2571.3406</v>
-      </c>
-      <c r="P9" s="1">
-        <v>83985.4284</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0177</v>
+        <v>-0.0201</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>11.6267</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>7503.7409</v>
       </c>
       <c r="F10" s="1">
         <v>434.9394</v>
       </c>
       <c r="G10" s="1">
-        <v>7938.6803</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>86790.51820000001</v>
       </c>
       <c r="I10" s="1">
-        <v>82923.3855</v>
+        <v>2061.931</v>
       </c>
       <c r="J10" s="1">
-        <v>10.4455</v>
+        <v>88852.4492</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>72994.9794</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>9.7278</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-5056.9104</v>
       </c>
-      <c r="O10" s="1">
-        <v>7514.4301</v>
-      </c>
-      <c r="P10" s="1">
-        <v>99335.58839999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0569</v>
+        <v>0.0636</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>12.3095</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>7938.6803</v>
       </c>
       <c r="F11" s="1">
         <v>413.729</v>
       </c>
       <c r="G11" s="1">
-        <v>8352.4094</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>97213.9038</v>
       </c>
       <c r="I11" s="1">
-        <v>88016.183</v>
+        <v>7005.0206</v>
       </c>
       <c r="J11" s="1">
-        <v>10.5378</v>
+        <v>104218.9244</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>78087.7769</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>9.836399999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-5092.7975</v>
       </c>
-      <c r="O11" s="1">
-        <v>12421.6326</v>
-      </c>
-      <c r="P11" s="1">
-        <v>114701.8967</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0491</v>
+        <v>0.0543</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>13.3876</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>8352.4094</v>
       </c>
       <c r="F12" s="1">
         <v>116.5778</v>
       </c>
       <c r="G12" s="1">
-        <v>8468.9872</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>111239.0584</v>
       </c>
       <c r="I12" s="1">
-        <v>89576.8805</v>
+        <v>11912.2231</v>
       </c>
       <c r="J12" s="1">
-        <v>10.577</v>
+        <v>123151.2814</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>79648.4745</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>9.536</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-1560.6975</v>
       </c>
-      <c r="O12" s="1">
-        <v>20860.9351</v>
-      </c>
-      <c r="P12" s="1">
-        <v>133652.6005</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0718</v>
+        <v>0.07820000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>13.3141</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>8468.9872</v>
       </c>
       <c r="F13" s="1">
         <v>844.3857</v>
       </c>
       <c r="G13" s="1">
-        <v>9313.3729</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>112171.7355</v>
       </c>
       <c r="I13" s="1">
-        <v>100819.1158</v>
+        <v>20351.5255</v>
       </c>
       <c r="J13" s="1">
-        <v>10.8252</v>
+        <v>132523.2611</v>
       </c>
       <c r="K13" s="1">
+        <v>90890.70970000001</v>
+      </c>
+      <c r="L13" s="1">
+        <v>10.7322</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.6</v>
       </c>
-      <c r="L13" s="1">
-        <v>4573.2531</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-6668.9821</v>
+        <v>4510.3011</v>
       </c>
       <c r="O13" s="1">
-        <v>24191.9529</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>147547.5767</v>
+        <v>-6731.9342</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0271</v>
+        <v>-0.0047</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>13.7208</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9313.3729</v>
       </c>
       <c r="F14" s="1">
         <v>-9313.3729</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>127123.8144</v>
       </c>
       <c r="I14" s="1">
-        <v>100819.1158</v>
+        <v>23619.5913</v>
       </c>
       <c r="J14" s="1">
-        <v>10.8252</v>
+        <v>150743.4057</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>90890.70970000001</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>9.7592</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>127123.8144</v>
       </c>
-      <c r="O14" s="1">
-        <v>151315.7673</v>
-      </c>
-      <c r="P14" s="1">
-        <v>151315.7673</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0396</v>
+        <v>0.0577</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>10.2783</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>972.9235</v>
       </c>
       <c r="G2" s="1">
-        <v>972.9235</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1432</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>10.2783</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1432</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>972.9235</v>
       </c>
       <c r="F3" s="1">
         <v>1019.6278</v>
       </c>
       <c r="G3" s="1">
-        <v>1992.5514</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19440.5267</v>
+        <v>9492.425800000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.0374</v>
+        <v>9492.425800000001</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10.2783</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.5</v>
       </c>
-      <c r="L3" s="1">
-        <v>437.8156</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9562.1844</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>437.8156</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19878.3423</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0035</v>
+        <v>-0.0508</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>10.4459</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1992.5514</v>
       </c>
       <c r="F4" s="1">
         <v>923.3334</v>
       </c>
       <c r="G4" s="1">
-        <v>2915.8848</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20705.9961</v>
       </c>
       <c r="I4" s="1">
-        <v>29645.0486</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>10.1667</v>
+        <v>20705.9961</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19645.0486</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>9.8592</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9645.0486</v>
       </c>
-      <c r="O4" s="1">
-        <v>792.7670000000001</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31093.767</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0407</v>
+        <v>0.0623</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>9.6988</v>
       </c>
       <c r="E5" s="1">
+        <v>2915.8848</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1067.6528</v>
+      </c>
+      <c r="G5" s="1">
         <v>40604.01</v>
       </c>
-      <c r="F5" s="1">
-        <v>1112.7941</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4028.6789</v>
-      </c>
       <c r="H5" s="1">
-        <v>38870.305</v>
+        <v>28133.6228</v>
       </c>
       <c r="I5" s="1">
-        <v>40437.8156</v>
+        <v>354.9514</v>
       </c>
       <c r="J5" s="1">
-        <v>10.0375</v>
+        <v>28488.5743</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.2885</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10792.767</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>38870.305</v>
+        <v>-10354.9514</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0541</v>
+        <v>-0.0722</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>10.0658</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>3983.5376</v>
       </c>
       <c r="F6" s="1">
         <v>993.463</v>
       </c>
       <c r="G6" s="1">
-        <v>5022.1419</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>50289.2176</v>
+        <v>39889.1542</v>
       </c>
       <c r="I6" s="1">
-        <v>50437.8156</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>10.0431</v>
+        <v>39889.1542</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.0413</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50289.2176</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.029</v>
+        <v>0.0364</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>11.2848</v>
       </c>
       <c r="E7" s="1">
+        <v>4977.0007</v>
+      </c>
+      <c r="F7" s="1">
+        <v>503.0017</v>
+      </c>
+      <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
-      <c r="F7" s="1">
-        <v>457.8605</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5480.0024</v>
-      </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>55873.3024</v>
       </c>
       <c r="I7" s="1">
-        <v>55604.6798</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>10.1468</v>
+        <v>55873.3024</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>45676.2738</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>9.1775</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-5166.8642</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>4833.1358</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>66353.2864</v>
+        <v>-5676.2738</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1006</v>
+        <v>0.1199</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>11.1341</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>5480.0024</v>
       </c>
       <c r="F8" s="1">
         <v>1032.5245</v>
       </c>
       <c r="G8" s="1">
-        <v>6512.5268</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>60698.6982</v>
       </c>
       <c r="I8" s="1">
-        <v>67100.9103</v>
+        <v>4323.7262</v>
       </c>
       <c r="J8" s="1">
-        <v>10.3034</v>
+        <v>65022.4245</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>57172.5043</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.4329</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-11496.2305</v>
       </c>
-      <c r="O8" s="1">
-        <v>3336.9053</v>
-      </c>
-      <c r="P8" s="1">
-        <v>75472.2574</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0115</v>
+        <v>-0.0129</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>10.9064</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>6512.5268</v>
       </c>
       <c r="F9" s="1">
         <v>1124.1767</v>
       </c>
       <c r="G9" s="1">
-        <v>7636.7035</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>70659.61350000001</v>
       </c>
       <c r="I9" s="1">
-        <v>79361.6308</v>
+        <v>2827.4957</v>
       </c>
       <c r="J9" s="1">
-        <v>10.3921</v>
+        <v>73487.10920000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69433.2248</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>10.6615</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-12260.7205</v>
       </c>
-      <c r="O9" s="1">
-        <v>1076.1848</v>
-      </c>
-      <c r="P9" s="1">
-        <v>83932.8904</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.018</v>
+        <v>-0.0205</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>11.6267</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>7636.7035</v>
       </c>
       <c r="F10" s="1">
         <v>463.1446</v>
       </c>
       <c r="G10" s="1">
-        <v>8099.8481</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>88328.4037</v>
       </c>
       <c r="I10" s="1">
-        <v>84746.47380000001</v>
+        <v>566.7752</v>
       </c>
       <c r="J10" s="1">
-        <v>10.4627</v>
+        <v>88895.1789</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>74818.0677</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>9.7972</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-5384.8429</v>
       </c>
-      <c r="O10" s="1">
-        <v>5691.3418</v>
-      </c>
-      <c r="P10" s="1">
-        <v>99376.6145</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.058</v>
+        <v>0.0648</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>12.3095</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>8099.8481</v>
       </c>
       <c r="F11" s="1">
         <v>443.8023</v>
       </c>
       <c r="G11" s="1">
-        <v>8543.6504</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>99187.49950000001</v>
       </c>
       <c r="I11" s="1">
-        <v>90209.4587</v>
+        <v>5181.9323</v>
       </c>
       <c r="J11" s="1">
-        <v>10.5587</v>
+        <v>104369.4318</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>80281.0526</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>9.9114</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-5462.9849</v>
       </c>
-      <c r="O11" s="1">
-        <v>10228.3569</v>
-      </c>
-      <c r="P11" s="1">
-        <v>114850.4823</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.05</v>
+        <v>0.0554</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>13.3876</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>8543.6504</v>
       </c>
       <c r="F12" s="1">
         <v>141.3331</v>
       </c>
       <c r="G12" s="1">
-        <v>8684.9835</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>113786.0448</v>
       </c>
       <c r="I12" s="1">
-        <v>92101.569</v>
+        <v>9718.947399999999</v>
       </c>
       <c r="J12" s="1">
-        <v>10.6047</v>
+        <v>123504.9922</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>82173.163</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>9.618</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-1892.1103</v>
       </c>
-      <c r="O12" s="1">
-        <v>18336.2466</v>
-      </c>
-      <c r="P12" s="1">
-        <v>134004.5933</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0733</v>
+        <v>0.0799</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>13.3141</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>8684.9835</v>
       </c>
       <c r="F13" s="1">
         <v>890.3303</v>
       </c>
       <c r="G13" s="1">
-        <v>9575.313700000001</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>115032.6059</v>
       </c>
       <c r="I13" s="1">
-        <v>103955.5151</v>
+        <v>17826.837</v>
       </c>
       <c r="J13" s="1">
-        <v>10.8566</v>
+        <v>132859.4429</v>
       </c>
       <c r="K13" s="1">
+        <v>94027.109</v>
+      </c>
+      <c r="L13" s="1">
+        <v>10.8264</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.6</v>
       </c>
-      <c r="L13" s="1">
-        <v>4689.8911</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-7164.055</v>
+        <v>4613.5712</v>
       </c>
       <c r="O13" s="1">
-        <v>21172.1916</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>147997.2217</v>
+        <v>-7240.3749</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0277</v>
+        <v>-0.0048</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>13.7208</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9575.313700000001</v>
       </c>
       <c r="F14" s="1">
         <v>-9575.313700000001</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>130699.2021</v>
       </c>
       <c r="I14" s="1">
-        <v>103955.5151</v>
+        <v>20586.4622</v>
       </c>
       <c r="J14" s="1">
-        <v>10.8566</v>
+        <v>151285.6642</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>94027.109</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>9.819699999999999</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>130699.2021</v>
       </c>
-      <c r="O14" s="1">
-        <v>151871.3936</v>
-      </c>
-      <c r="P14" s="1">
-        <v>151871.3936</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0388</v>
+        <v>0.059</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>10.2783</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>972.9235</v>
       </c>
       <c r="G2" s="1">
-        <v>972.9235</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1432</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>10.2783</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1432</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>972.9235</v>
       </c>
       <c r="F3" s="1">
         <v>1019.6278</v>
       </c>
       <c r="G3" s="1">
-        <v>1992.5514</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19440.5267</v>
+        <v>9492.425800000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.0374</v>
+        <v>9492.425800000001</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10.2783</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.5</v>
       </c>
-      <c r="L3" s="1">
-        <v>437.8156</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9562.1844</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>437.8156</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19878.3423</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0035</v>
+        <v>-0.0508</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>10.4459</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1992.5514</v>
       </c>
       <c r="F4" s="1">
         <v>937.8883</v>
       </c>
       <c r="G4" s="1">
-        <v>2930.4397</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20705.9961</v>
       </c>
       <c r="I4" s="1">
-        <v>29797.0874</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>10.1681</v>
+        <v>20705.9961</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19797.0874</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>9.935499999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9797.0874</v>
       </c>
-      <c r="O4" s="1">
-        <v>640.7282</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31092.9782</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0407</v>
+        <v>0.0623</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>9.6988</v>
       </c>
       <c r="E5" s="1">
+        <v>2930.4397</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1051.9768</v>
+      </c>
+      <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
-      <c r="F5" s="1">
-        <v>1097.118</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4027.5577</v>
-      </c>
       <c r="H5" s="1">
-        <v>38859.4876</v>
+        <v>28274.0542</v>
       </c>
       <c r="I5" s="1">
-        <v>40437.8156</v>
+        <v>202.9126</v>
       </c>
       <c r="J5" s="1">
-        <v>10.0403</v>
+        <v>28476.9668</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.2374</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10640.7282</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>38859.4876</v>
+        <v>-10202.9126</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0544</v>
+        <v>-0.0726</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>10.0658</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>3982.4165</v>
       </c>
       <c r="F6" s="1">
         <v>993.463</v>
       </c>
       <c r="G6" s="1">
-        <v>5021.0207</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>50277.9908</v>
+        <v>39877.9274</v>
       </c>
       <c r="I6" s="1">
-        <v>50437.8156</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>10.0453</v>
+        <v>39877.9274</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.0442</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50277.9908</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.029</v>
+        <v>0.0364</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>11.2848</v>
       </c>
       <c r="E7" s="1">
+        <v>4975.8795</v>
+      </c>
+      <c r="F7" s="1">
+        <v>573.1892</v>
+      </c>
+      <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
-      <c r="F7" s="1">
-        <v>528.0479</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5549.0686</v>
-      </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>55860.7159</v>
       </c>
       <c r="I7" s="1">
-        <v>56396.731</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>10.1633</v>
+        <v>55860.7159</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>46468.325</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>9.338699999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-5958.9154</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>4041.0846</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>66336.59390000001</v>
+        <v>-6468.325</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1005</v>
+        <v>0.1199</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>11.1341</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>5549.0686</v>
       </c>
       <c r="F8" s="1">
         <v>1062.28</v>
       </c>
       <c r="G8" s="1">
-        <v>6611.3486</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>61463.7039</v>
       </c>
       <c r="I8" s="1">
-        <v>68224.2626</v>
+        <v>3531.675</v>
       </c>
       <c r="J8" s="1">
-        <v>10.3193</v>
+        <v>64995.379</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58295.8565</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.5055</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-11827.5316</v>
       </c>
-      <c r="O8" s="1">
-        <v>2213.553</v>
-      </c>
-      <c r="P8" s="1">
-        <v>75443.495</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0117</v>
+        <v>-0.0131</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>10.9064</v>
       </c>
       <c r="E9" s="1">
+        <v>6611.3486</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1073.1445</v>
+      </c>
+      <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
-      <c r="F9" s="1">
-        <v>1119.8519</v>
-      </c>
-      <c r="G9" s="1">
-        <v>7731.2006</v>
-      </c>
       <c r="H9" s="1">
-        <v>83881.9797</v>
+        <v>71731.8103</v>
       </c>
       <c r="I9" s="1">
-        <v>80437.8156</v>
+        <v>1704.1435</v>
       </c>
       <c r="J9" s="1">
-        <v>10.4043</v>
+        <v>73435.9538</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>10.5879</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-12213.553</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>83881.9797</v>
+        <v>-11704.1435</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0183</v>
+        <v>-0.0208</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>11.6267</v>
       </c>
       <c r="E10" s="1">
+        <v>7684.4932</v>
+      </c>
+      <c r="F10" s="1">
+        <v>580.3207</v>
+      </c>
+      <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
-      <c r="F10" s="1">
-        <v>533.6133</v>
-      </c>
-      <c r="G10" s="1">
-        <v>8264.813899999999</v>
-      </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>88881.1532</v>
       </c>
       <c r="I10" s="1">
-        <v>86641.97779999999</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>10.4832</v>
+        <v>88881.1532</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>76747.2151</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>9.987299999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-6204.1622</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>3795.8378</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>99389.1547</v>
+        <v>-6747.2151</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0587</v>
+        <v>0.0653</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>12.3095</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>8264.813899999999</v>
       </c>
       <c r="F11" s="1">
         <v>475.241</v>
       </c>
       <c r="G11" s="1">
-        <v>8740.054899999999</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>101207.605</v>
       </c>
       <c r="I11" s="1">
-        <v>92491.9574</v>
+        <v>3252.7849</v>
       </c>
       <c r="J11" s="1">
-        <v>10.5825</v>
+        <v>104460.3899</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>82597.19469999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>9.9938</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-5849.9796</v>
       </c>
-      <c r="O11" s="1">
-        <v>7945.8582</v>
-      </c>
-      <c r="P11" s="1">
-        <v>114973.0749</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.051</v>
+        <v>0.0564</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>13.3876</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>8740.054899999999</v>
       </c>
       <c r="F12" s="1">
         <v>167.502</v>
       </c>
       <c r="G12" s="1">
-        <v>8907.5569</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>116401.7996</v>
       </c>
       <c r="I12" s="1">
-        <v>94734.4074</v>
+        <v>7402.8053</v>
       </c>
       <c r="J12" s="1">
-        <v>10.6353</v>
+        <v>123804.6049</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>84839.6447</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>9.707000000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-2242.45</v>
       </c>
-      <c r="O12" s="1">
-        <v>15703.4082</v>
-      </c>
-      <c r="P12" s="1">
-        <v>134336.0331</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.07489999999999999</v>
+        <v>0.08160000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>13.3141</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>8907.5569</v>
       </c>
       <c r="F13" s="1">
         <v>938.5823</v>
       </c>
       <c r="G13" s="1">
-        <v>9846.1392</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>117980.5918</v>
       </c>
       <c r="I13" s="1">
-        <v>107230.786</v>
+        <v>15160.3553</v>
       </c>
       <c r="J13" s="1">
-        <v>10.8906</v>
+        <v>133140.9471</v>
       </c>
       <c r="K13" s="1">
+        <v>97336.0233</v>
+      </c>
+      <c r="L13" s="1">
+        <v>10.9274</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.6</v>
       </c>
-      <c r="L13" s="1">
-        <v>4810.0808</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-7686.2978</v>
+        <v>4719.6297</v>
       </c>
       <c r="O13" s="1">
-        <v>18017.1104</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>148429.2247</v>
+        <v>-7776.7489</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0284</v>
+        <v>-0.005</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>13.7208</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9846.1392</v>
       </c>
       <c r="F14" s="1">
         <v>-9846.1392</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>134395.8622</v>
       </c>
       <c r="I14" s="1">
-        <v>107230.786</v>
+        <v>17383.6064</v>
       </c>
       <c r="J14" s="1">
-        <v>10.8906</v>
+        <v>151779.4686</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>97336.0233</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>9.8857</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>134395.8622</v>
       </c>
-      <c r="O14" s="1">
-        <v>152412.9726</v>
-      </c>
-      <c r="P14" s="1">
-        <v>152412.9726</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.038</v>
+        <v>0.0603</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>13.6838</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>11.0647</v>
+        <v>10.1419</v>
       </c>
       <c r="D3" s="1">
-        <v>10.7976</v>
+        <v>9.6975</v>
       </c>
       <c r="E3" s="1">
-        <v>10.8252</v>
+        <v>9.7592</v>
       </c>
       <c r="F3" s="1">
-        <v>10.8566</v>
+        <v>9.819699999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>10.8906</v>
+        <v>9.8857</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.3103</v>
       </c>
       <c r="C4" s="3">
-        <v>0.2683</v>
+        <v>0.3296</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2447</v>
+        <v>0.3081</v>
       </c>
       <c r="E4" s="3">
-        <v>0.2493</v>
+        <v>0.3122</v>
       </c>
       <c r="F4" s="3">
-        <v>0.2534</v>
+        <v>0.3164</v>
       </c>
       <c r="G4" s="3">
-        <v>0.2574</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1912</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1574</v>
+        <v>0.1966</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1535</v>
+        <v>0.189</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1546</v>
+        <v>0.1903</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1555</v>
+        <v>0.1917</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1563</v>
+        <v>0.1931</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.5165</v>
       </c>
       <c r="C6" s="4">
-        <v>1.5756</v>
+        <v>1.5732</v>
       </c>
       <c r="D6" s="4">
-        <v>1.4613</v>
+        <v>1.523</v>
       </c>
       <c r="E6" s="4">
-        <v>1.4806</v>
+        <v>1.5336</v>
       </c>
       <c r="F6" s="4">
-        <v>1.4992</v>
+        <v>1.5441</v>
       </c>
       <c r="G6" s="4">
-        <v>1.517</v>
+        <v>1.5524</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.5677</v>
+        <v>0.3714</v>
       </c>
       <c r="D7" s="3">
-        <v>0.5705</v>
+        <v>0.5564</v>
       </c>
       <c r="E7" s="3">
-        <v>0.5713</v>
+        <v>0.5564</v>
       </c>
       <c r="F7" s="3">
-        <v>0.5714</v>
+        <v>0.5565</v>
       </c>
       <c r="G7" s="3">
-        <v>0.5713</v>
+        <v>0.5561</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5908.2689</v>
+        <v>5047.9391</v>
       </c>
       <c r="D8" s="1">
-        <v>4897.8778</v>
+        <v>4409.7472</v>
       </c>
       <c r="E8" s="1">
-        <v>5011.0687</v>
+        <v>4510.3011</v>
       </c>
       <c r="F8" s="1">
-        <v>5127.7067</v>
+        <v>4613.5712</v>
       </c>
       <c r="G8" s="1">
-        <v>5247.8963</v>
+        <v>4719.6297</v>
       </c>
     </row>
   </sheetData>
